--- a/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板导出二厂——半检拉坯——半检月报.xlsx
+++ b/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/Excel/模板导出二厂——半检拉坯——半检月报.xlsx
@@ -71,12 +71,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,17 +96,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,29 +159,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -154,24 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,30 +190,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -217,31 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,13 +261,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,169 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,8 +546,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -565,6 +560,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,32 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -782,10 +775,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -793,8 +783,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1174,20 +1167,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="17" max="17" width="12.75" customWidth="1"/>
-    <col min="18" max="18" width="14.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="14.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1199,68 +1192,65 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="M2" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="N2" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
